--- a/data_year/zb/科技/高技术产业研究与试验发展活动及新产品开发情况(大中型工业企业口径)/高技术产业研究与试验发展项目经费(大中型工业企业口径).xlsx
+++ b/data_year/zb/科技/高技术产业研究与试验发展活动及新产品开发情况(大中型工业企业口径)/高技术产业研究与试验发展项目经费(大中型工业企业口径).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,134 +538,67 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153616.7</v>
+        <v>174143.8</v>
       </c>
       <c r="C2" t="n">
-        <v>329123.3</v>
+        <v>385884</v>
       </c>
       <c r="D2" t="n">
-        <v>77748</v>
+        <v>112453.3</v>
       </c>
       <c r="E2" t="n">
-        <v>546142</v>
+        <v>680478.4</v>
       </c>
       <c r="F2" t="n">
-        <v>120058.9</v>
+        <v>135620.1</v>
       </c>
       <c r="G2" t="n">
-        <v>449182.2</v>
+        <v>521504.1</v>
       </c>
       <c r="H2" t="n">
-        <v>831642.3</v>
+        <v>1024415.2</v>
       </c>
       <c r="I2" t="n">
-        <v>547992.3</v>
+        <v>623651.6</v>
       </c>
       <c r="J2" t="n">
-        <v>33797</v>
+        <v>36422.2</v>
       </c>
       <c r="K2" t="n">
-        <v>82365.2</v>
+        <v>110005</v>
       </c>
       <c r="L2" t="n">
-        <v>572852.8</v>
+        <v>759098.8</v>
       </c>
       <c r="M2" t="n">
-        <v>4104486.4</v>
+        <v>5247011</v>
       </c>
       <c r="N2" t="n">
-        <v>585296</v>
+        <v>752935.7</v>
       </c>
       <c r="O2" t="n">
-        <v>896649.6</v>
+        <v>1058918.9</v>
       </c>
       <c r="P2" t="n">
-        <v>391256</v>
+        <v>541992.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>352623.1</v>
+        <v>355743.5</v>
       </c>
       <c r="R2" t="n">
-        <v>350888.5</v>
+        <v>600949.5</v>
       </c>
       <c r="S2" t="n">
-        <v>2252012.7</v>
+        <v>2917921.8</v>
       </c>
       <c r="T2" t="n">
-        <v>34787.6</v>
+        <v>44528</v>
       </c>
       <c r="U2" t="n">
-        <v>6632849</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>174143.8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>385884</v>
-      </c>
-      <c r="D3" t="n">
-        <v>112453.3</v>
-      </c>
-      <c r="E3" t="n">
-        <v>680478.4</v>
-      </c>
-      <c r="F3" t="n">
-        <v>135620.1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>521504.1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1024415.2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>623651.6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>36422.2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>110005</v>
-      </c>
-      <c r="L3" t="n">
-        <v>759098.8</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5247011</v>
-      </c>
-      <c r="N3" t="n">
-        <v>752935.7</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1058918.9</v>
-      </c>
-      <c r="P3" t="n">
-        <v>541992.4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>355743.5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>600949.5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2917921.8</v>
-      </c>
-      <c r="T3" t="n">
-        <v>44528</v>
-      </c>
-      <c r="U3" t="n">
         <v>8452799.1</v>
       </c>
     </row>
